--- a/doors-detector/results/house9.xlsx
+++ b/doors-detector/results/house9.xlsx
@@ -495,16 +495,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.7555629853602286</v>
+        <v>0.7719863623056324</v>
       </c>
       <c r="F2" t="n">
         <v>4100</v>
       </c>
       <c r="G2" t="n">
-        <v>3325</v>
+        <v>3358</v>
       </c>
       <c r="H2" t="n">
-        <v>775</v>
+        <v>742</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2a</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.3690693254629485</v>
+        <v>0.3890222463831329</v>
       </c>
       <c r="F3" t="n">
         <v>139</v>
       </c>
       <c r="G3" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H3" t="n">
-        <v>134</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4">
@@ -550,7 +550,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2b</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.4110387402198416</v>
+        <v>0.3786280615450843</v>
       </c>
       <c r="F4" t="n">
         <v>194</v>
       </c>
       <c r="G4" t="n">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="H4" t="n">
-        <v>342</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5">
@@ -582,7 +582,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2c</t>
+          <t>2a</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.7928240211059696</v>
+        <v>0.8028672750080269</v>
       </c>
       <c r="F5" t="n">
         <v>4100</v>
       </c>
       <c r="G5" t="n">
-        <v>3470</v>
+        <v>3497</v>
       </c>
       <c r="H5" t="n">
-        <v>630</v>
+        <v>603</v>
       </c>
     </row>
     <row r="6">
@@ -614,7 +614,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2a</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.6865523650888251</v>
+        <v>0.6776237282140367</v>
       </c>
       <c r="F6" t="n">
         <v>139</v>
       </c>
       <c r="G6" t="n">
+        <v>106</v>
+      </c>
+      <c r="H6" t="n">
         <v>107</v>
-      </c>
-      <c r="H6" t="n">
-        <v>96</v>
       </c>
     </row>
     <row r="7">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.5949360507987842</v>
+        <v>0.6072271805808985</v>
       </c>
       <c r="F7" t="n">
         <v>194</v>
       </c>
       <c r="G7" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H7" t="n">
-        <v>266</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.7915305026211591</v>
+        <v>0.7886140501885989</v>
       </c>
       <c r="F8" t="n">
         <v>4100</v>
       </c>
       <c r="G8" t="n">
-        <v>3457</v>
+        <v>3450</v>
       </c>
       <c r="H8" t="n">
-        <v>643</v>
+        <v>650</v>
       </c>
     </row>
     <row r="9">
@@ -710,7 +710,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2c</t>
+          <t>2b</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.7584134901194358</v>
+        <v>0.7604528925076416</v>
       </c>
       <c r="F9" t="n">
         <v>139</v>
       </c>
       <c r="G9" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H9" t="n">
-        <v>81</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
@@ -742,25 +742,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>2b</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E10" t="n">
-        <v>0.6471556546753512</v>
+        <v>0.6276651952159202</v>
       </c>
       <c r="F10" t="n">
         <v>194</v>
       </c>
       <c r="G10" t="n">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="H10" t="n">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11">
@@ -774,7 +774,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2a</t>
+          <t>2c</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -783,16 +783,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.7848766056211797</v>
+        <v>0.7777805197129833</v>
       </c>
       <c r="F11" t="n">
         <v>4100</v>
       </c>
       <c r="G11" t="n">
-        <v>3437</v>
+        <v>3414</v>
       </c>
       <c r="H11" t="n">
-        <v>663</v>
+        <v>686</v>
       </c>
     </row>
     <row r="12">
@@ -806,7 +806,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2b</t>
+          <t>2c</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.7646943422196221</v>
+        <v>0.7883093097669465</v>
       </c>
       <c r="F12" t="n">
         <v>139</v>
       </c>
       <c r="G12" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H12" t="n">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.713726767158176</v>
+        <v>0.6773830160822271</v>
       </c>
       <c r="F13" t="n">
         <v>194</v>
       </c>
       <c r="G13" t="n">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H13" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
